--- a/biology/Botanique/Pommier_toringo/Pommier_toringo.xlsx
+++ b/biology/Botanique/Pommier_toringo/Pommier_toringo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Pommetier de Siebold[6],[7] ou Pommetier toringo[8], de son nom scientifique : Malus sieboldii ou Malus toringo selon les sources,est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un pommier sauvage, originaire d'Asie (Chine, Japon, Corée).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pommetier de Siebold, ou Pommetier toringo, de son nom scientifique : Malus sieboldii ou Malus toringo selon les sources,est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un pommier sauvage, originaire d'Asie (Chine, Japon, Corée).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pommier Toringo est un petit arbre hermaphrodite à feuilles caduques. Parfois buissonnant, il mesure de 4 à 5 mètres. 
 Les boutons floraux apparaissent au printemps. Ils sont pourpres, tandis que les fleurs de 2 à 3 cm de diamètre sont rose clair lorsqu'elles éclosent et deviennent blanches lorsqu'elles dépérissent. Elles donnent de petits fruits ronds rouges ou orange de 6-8 mm de diamètre.
@@ -543,7 +557,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut être utilisée comme un arbre d'ornement pour ses fleurs voyantes au printemps et ses fruits restant longtemps sur l'arbre en hiver. En Chine, il est parfois utilisé comme porte-greffe du pommier.
 </t>
@@ -574,11 +590,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (28 janvier 2018)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (28 janvier 2018) :
 Malus sieboldii var. zumi (Matsum.) Asami
-Selon Tropicos                                           (28 janvier 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (28 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Malus sieboldii var. arborescens Rehder
 Malus sieboldii var. calocarpa Rehder
 Malus sieboldii var. incisa Koidz.</t>
